--- a/xlsx/第二代新古典主义经济学_intext.xlsx
+++ b/xlsx/第二代新古典主义经济学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>第二代新古典主义经济学</t>
   </si>
@@ -29,19 +29,19 @@
     <t>第一代新古典主义经济学</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_第二代新古典主义经济学</t>
+    <t>政策_政策_货币政策_第二代新古典主义经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>總體經濟學</t>
+    <t>总体经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>個體經濟學</t>
+    <t>个体经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%A2%84%E6%9C%9F</t>
@@ -53,31 +53,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興凱恩斯學派</t>
+    <t>新兴凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>經濟大蕭條</t>
+    <t>经济大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
   </si>
   <si>
-    <t>羅斯福新政</t>
+    <t>罗斯福新政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新凱恩斯學派</t>
+    <t>新凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>停滯性通貨膨脹</t>
+    <t>停滞性通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E6%96%B0%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>貨幣學派</t>
+    <t>货币学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>淡水學派</t>
+    <t>淡水学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E6%B0%B4%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>鹽水學派</t>
+    <t>盐水学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>主流經濟學</t>
+    <t>主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%80%81%E5%88%86%E6%9E%90</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%B7%B4%E7%BE%85</t>
   </si>
   <si>
-    <t>羅伯特·巴羅</t>
+    <t>罗伯特·巴罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%91%AA%E6%96%AF%C2%B7%E8%96%A9%E9%87%91%E7%89%B9</t>
   </si>
   <si>
-    <t>托瑪斯·薩金特</t>
+    <t>托玛斯·萨金特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E5%B0%8F%E5%87%AF</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%B4%BE</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%8F%A4%E5%85%B8%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興古典學派</t>
+    <t>新兴古典学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>後凱恩斯學派</t>
+    <t>后凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AD%A6%E6%B4%BE</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>經濟歷史學派</t>
+    <t>经济历史学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>洛桑學派</t>
+    <t>洛桑学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%98%89%E5%9B%BE%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國有社會主義</t>
+    <t>国有社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E4%B8%96%E7%BA%AA</t>
@@ -353,9 +353,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%88%B6%E5%BA%A6%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新制度經濟學</t>
+    <t>新制度经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -383,19 +380,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>熱經濟學</t>
+    <t>热经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neo-Marxian_economics</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>非主流經濟學</t>
+    <t>非主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
@@ -2429,7 +2426,7 @@
         <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2455,10 +2452,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2484,10 +2481,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2513,10 +2510,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2542,10 +2539,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2571,10 +2568,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2600,10 +2597,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2629,10 +2626,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2658,10 +2655,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2687,10 +2684,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>44</v>
@@ -2716,10 +2713,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2745,10 +2742,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2774,10 +2771,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2803,10 +2800,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2832,10 +2829,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
